--- a/DEMO_AE.xlsx
+++ b/DEMO_AE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u819970\Downloads\TEST\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u819970\Downloads\TEST\PracticeWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7C20AC-2B2C-4206-9404-997572667475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9018FDCF-1B26-41B9-AC11-E9E167766667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="AE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="AE">AE!$A$1:$S$26</definedName>
+    <definedName name="AE">AE!$A$1:$R$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="93">
   <si>
     <t>STUDYID</t>
   </si>
@@ -53,9 +53,6 @@
     <t>AETERM</t>
   </si>
   <si>
-    <t>AELLT</t>
-  </si>
-  <si>
     <t>AECAT</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>AETOXGR</t>
   </si>
   <si>
-    <t>AESTDTC</t>
-  </si>
-  <si>
     <t>AEENDTC</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t>CRS</t>
   </si>
   <si>
-    <t>Cytokine release syndrome</t>
-  </si>
-  <si>
     <t>GENERAL ADVERSE EVENTS</t>
   </si>
   <si>
@@ -140,9 +131,6 @@
     <t>NEUTROPENIE</t>
   </si>
   <si>
-    <t>Neutropenia</t>
-  </si>
-  <si>
     <t>NOT RECOVERED/NOT RESOLVED</t>
   </si>
   <si>
@@ -158,15 +146,9 @@
     <t>FEVER</t>
   </si>
   <si>
-    <t>Fever</t>
-  </si>
-  <si>
     <t>FACIAL NERVE PALSY</t>
   </si>
   <si>
-    <t>Facial nerve paralysis</t>
-  </si>
-  <si>
     <t>SPECIAL INTEREST ADVERSE EVENTS</t>
   </si>
   <si>
@@ -182,9 +164,6 @@
     <t>PORT INFECTION</t>
   </si>
   <si>
-    <t>Catheter infection</t>
-  </si>
-  <si>
     <t>2024-12-01</t>
   </si>
   <si>
@@ -206,9 +185,6 @@
     <t>BACTERAEMIA</t>
   </si>
   <si>
-    <t>Bacteraemia</t>
-  </si>
-  <si>
     <t>RECOVERING/RESOLVING</t>
   </si>
   <si>
@@ -233,9 +209,6 @@
     <t>COLD</t>
   </si>
   <si>
-    <t>Cold</t>
-  </si>
-  <si>
     <t>2024-09</t>
   </si>
   <si>
@@ -248,18 +221,12 @@
     <t>DRY CAUGH</t>
   </si>
   <si>
-    <t>Dry cough</t>
-  </si>
-  <si>
     <t>2024-06-25</t>
   </si>
   <si>
     <t>DYSURIA</t>
   </si>
   <si>
-    <t>Dysuria</t>
-  </si>
-  <si>
     <t>2024-06-27</t>
   </si>
   <si>
@@ -269,18 +236,12 @@
     <t>FATIGUE</t>
   </si>
   <si>
-    <t>Fatigue</t>
-  </si>
-  <si>
     <t>2024-07-04</t>
   </si>
   <si>
     <t>GLUE EAR</t>
   </si>
   <si>
-    <t>Glue ear</t>
-  </si>
-  <si>
     <t>2024-07-05</t>
   </si>
   <si>
@@ -290,9 +251,6 @@
     <t>HYPERTENSION</t>
   </si>
   <si>
-    <t>Hypertension</t>
-  </si>
-  <si>
     <t>2024-06-28</t>
   </si>
   <si>
@@ -308,24 +266,15 @@
     <t>HYPOGAMMAGLOBULINEMIA</t>
   </si>
   <si>
-    <t>Hypogammaglobulinemia</t>
-  </si>
-  <si>
     <t>2024-07</t>
   </si>
   <si>
     <t>MUCOSITIS ORAL</t>
   </si>
   <si>
-    <t>Mucositis oral</t>
-  </si>
-  <si>
     <t>MUSCLE  PAIN</t>
   </si>
   <si>
-    <t>Muscle pain</t>
-  </si>
-  <si>
     <t>U</t>
   </si>
   <si>
@@ -335,9 +284,6 @@
     <t>PARESIS OF NERVUS FACIALIS</t>
   </si>
   <si>
-    <t>Facial nerve paresis</t>
-  </si>
-  <si>
     <t>2024-07-11</t>
   </si>
   <si>
@@ -366,6 +312,9 @@
   </si>
   <si>
     <t>LISTINGDEMO</t>
+  </si>
+  <si>
+    <t>AESTDAT</t>
   </si>
 </sst>
 </file>
@@ -707,19 +656,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="23.26953125" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="23.26953125" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -769,1017 +717,945 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
+      <c r="Q2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
+      <c r="R2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>36</v>
-      </c>
       <c r="R4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
       </c>
       <c r="P5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Q5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R5" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" t="s">
         <v>22</v>
       </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" t="s">
-        <v>23</v>
-      </c>
       <c r="Q6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="R6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="O7" t="s">
+        <v>26</v>
       </c>
       <c r="P7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="Q7" t="s">
-        <v>44</v>
-      </c>
-      <c r="R7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" t="s">
         <v>40</v>
       </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>25</v>
-      </c>
       <c r="R8" t="s">
-        <v>46</v>
-      </c>
-      <c r="S8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
+        <v>41</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>42</v>
       </c>
       <c r="R9" t="s">
-        <v>49</v>
-      </c>
-      <c r="S9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P10" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="Q10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="R10" t="s">
-        <v>54</v>
-      </c>
-      <c r="S10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s">
         <v>22</v>
       </c>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" t="s">
-        <v>57</v>
-      </c>
-      <c r="P11" t="s">
-        <v>29</v>
-      </c>
       <c r="Q11" t="s">
-        <v>25</v>
-      </c>
-      <c r="R11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" t="s">
-        <v>29</v>
-      </c>
-      <c r="R12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
         <v>21</v>
       </c>
-      <c r="G13" t="s">
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" t="s">
         <v>22</v>
       </c>
-      <c r="H13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" t="s">
-        <v>29</v>
-      </c>
       <c r="Q13" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="R13" t="s">
-        <v>61</v>
-      </c>
-      <c r="S13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" t="s">
         <v>24</v>
       </c>
-      <c r="P14" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>30</v>
-      </c>
       <c r="R14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="O15" t="s">
+        <v>26</v>
       </c>
       <c r="P15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q15" t="s">
-        <v>30</v>
-      </c>
-      <c r="R15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
         <v>21</v>
       </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" t="s">
-        <v>24</v>
+      <c r="O16" t="s">
+        <v>26</v>
       </c>
       <c r="P16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q16" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="R16" t="s">
-        <v>67</v>
-      </c>
-      <c r="S16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="O17" t="s">
+        <v>26</v>
       </c>
       <c r="P17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q17" t="s">
-        <v>30</v>
-      </c>
-      <c r="R17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" t="s">
         <v>22</v>
       </c>
-      <c r="H18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P18" t="s">
-        <v>23</v>
-      </c>
       <c r="Q18" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="R18" t="s">
-        <v>74</v>
-      </c>
-      <c r="S18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="O19" t="s">
+        <v>20</v>
       </c>
       <c r="P19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Q19" t="s">
-        <v>30</v>
-      </c>
-      <c r="R19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D20">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="O20" t="s">
+        <v>26</v>
       </c>
       <c r="P20" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="Q20" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="R20" t="s">
-        <v>81</v>
-      </c>
-      <c r="S20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D21">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="O21" t="s">
+        <v>20</v>
       </c>
       <c r="P21" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="Q21" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="R21" t="s">
-        <v>85</v>
-      </c>
-      <c r="S21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D22">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="O22" t="s">
+        <v>20</v>
       </c>
       <c r="P22" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Q22" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="R22" t="s">
-        <v>88</v>
-      </c>
-      <c r="S22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D23">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
         <v>90</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" t="s">
-        <v>35</v>
-      </c>
-      <c r="P23" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>30</v>
-      </c>
-      <c r="R23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>108</v>
       </c>
       <c r="D24">
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" t="s">
         <v>22</v>
       </c>
-      <c r="H24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" t="s">
-        <v>24</v>
-      </c>
-      <c r="P24" t="s">
-        <v>23</v>
-      </c>
       <c r="Q24" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="R24" t="s">
-        <v>88</v>
-      </c>
-      <c r="S24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D25">
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="O25" t="s">
+        <v>79</v>
       </c>
       <c r="P25" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="Q25" t="s">
-        <v>30</v>
-      </c>
-      <c r="R25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D26">
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="O26" t="s">
+        <v>26</v>
       </c>
       <c r="P26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q26" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="R26" t="s">
-        <v>100</v>
-      </c>
-      <c r="S26" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/DEMO_AE.xlsx
+++ b/DEMO_AE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u819970\Downloads\TEST\PracticeWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9018FDCF-1B26-41B9-AC11-E9E167766667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855868FE-BFA5-459F-A4BF-A4ADAB15EEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -658,7 +658,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/DEMO_AE.xlsx
+++ b/DEMO_AE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u819970\Downloads\TEST\PracticeWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855868FE-BFA5-459F-A4BF-A4ADAB15EEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F04005-46B1-4DBB-8AA6-55D0525263EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="AE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="AE">AE!$A$1:$R$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AE!$A$1:$T$26</definedName>
+    <definedName name="AE">AE!$A$1:$T$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="96">
   <si>
     <t>STUDYID</t>
   </si>
@@ -315,6 +316,15 @@
   </si>
   <si>
     <t>AESTDAT</t>
+  </si>
+  <si>
+    <t>AEAGE</t>
+  </si>
+  <si>
+    <t>AGEU</t>
+  </si>
+  <si>
+    <t>Years</t>
   </si>
 </sst>
 </file>
@@ -656,20 +666,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="14.54296875" customWidth="1"/>
     <col min="6" max="6" width="23.26953125" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="7" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -692,40 +702,46 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>92</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -747,23 +763,29 @@
       <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>23</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -785,23 +807,29 @@
       <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" t="s">
         <v>21</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>26</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>28</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -823,23 +851,29 @@
       <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="O4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>23</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -861,23 +895,29 @@
       <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" t="s">
         <v>31</v>
       </c>
-      <c r="O5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>33</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -899,23 +939,29 @@
       <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" t="s">
         <v>21</v>
       </c>
-      <c r="O6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>33</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -934,17 +980,23 @@
       <c r="F7" t="s">
         <v>37</v>
       </c>
-      <c r="O7" t="s">
+      <c r="H7">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q7" t="s">
         <v>26</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -966,23 +1018,29 @@
       <c r="G8" t="s">
         <v>20</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
         <v>21</v>
       </c>
-      <c r="O8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" t="s">
         <v>22</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>40</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -998,14 +1056,20 @@
       <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="H9">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="S9" t="s">
         <v>42</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -1027,24 +1091,24 @@
       <c r="G10" t="s">
         <v>26</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" t="s">
         <v>45</v>
       </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
-        <v>20</v>
-      </c>
       <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
         <v>26</v>
       </c>
-      <c r="L10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" t="s">
-        <v>20</v>
-      </c>
       <c r="N10" t="s">
         <v>20</v>
       </c>
@@ -1052,16 +1116,22 @@
         <v>20</v>
       </c>
       <c r="P10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" t="s">
         <v>46</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>47</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -1083,20 +1153,23 @@
       <c r="G11" t="s">
         <v>20</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" t="s">
         <v>49</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>26</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>22</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -1118,21 +1191,18 @@
       <c r="G12" t="s">
         <v>26</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" t="s">
         <v>31</v>
       </c>
-      <c r="I12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
         <v>26</v>
       </c>
-      <c r="K12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" t="s">
-        <v>20</v>
-      </c>
       <c r="M12" t="s">
         <v>20</v>
       </c>
@@ -1140,13 +1210,19 @@
         <v>20</v>
       </c>
       <c r="O12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" t="s">
         <v>26</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -1168,23 +1244,29 @@
       <c r="G13" t="s">
         <v>20</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" t="s">
         <v>21</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>26</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>22</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
         <v>53</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -1206,23 +1288,29 @@
       <c r="G14" t="s">
         <v>20</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14">
         <v>21</v>
       </c>
-      <c r="O14" t="s">
+      <c r="I14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" t="s">
         <v>26</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>27</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>24</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -1244,20 +1332,26 @@
       <c r="G15" t="s">
         <v>20</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15">
+        <v>35</v>
+      </c>
+      <c r="I15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" t="s">
         <v>31</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>26</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>27</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -1279,23 +1373,29 @@
       <c r="G16" t="s">
         <v>20</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" t="s">
         <v>21</v>
       </c>
-      <c r="O16" t="s">
+      <c r="Q16" t="s">
         <v>26</v>
       </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="S16" t="s">
         <v>58</v>
       </c>
-      <c r="R16" t="s">
+      <c r="T16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -1317,20 +1417,26 @@
       <c r="G17" t="s">
         <v>20</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17">
+        <v>35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" t="s">
         <v>31</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
         <v>26</v>
       </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="S17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -1352,23 +1458,29 @@
       <c r="G18" t="s">
         <v>20</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" t="s">
         <v>21</v>
       </c>
-      <c r="O18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" t="s">
         <v>22</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="S18" t="s">
         <v>63</v>
       </c>
-      <c r="R18" t="s">
+      <c r="T18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -1390,20 +1502,26 @@
       <c r="G19" t="s">
         <v>20</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19">
+        <v>35</v>
+      </c>
+      <c r="I19" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" t="s">
         <v>31</v>
       </c>
-      <c r="O19" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" t="s">
         <v>27</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="S19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -1425,23 +1543,29 @@
       <c r="G20" t="s">
         <v>20</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20">
+        <v>35</v>
+      </c>
+      <c r="I20" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" t="s">
         <v>21</v>
       </c>
-      <c r="O20" t="s">
+      <c r="Q20" t="s">
         <v>26</v>
       </c>
-      <c r="P20" t="s">
+      <c r="R20" t="s">
         <v>38</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="S20" t="s">
         <v>68</v>
       </c>
-      <c r="R20" t="s">
+      <c r="T20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -1463,23 +1587,29 @@
       <c r="G21" t="s">
         <v>20</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21">
+        <v>35</v>
+      </c>
+      <c r="I21" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" t="s">
         <v>21</v>
       </c>
-      <c r="O21" t="s">
-        <v>20</v>
-      </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" t="s">
         <v>38</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="S21" t="s">
         <v>71</v>
       </c>
-      <c r="R21" t="s">
+      <c r="T21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -1501,20 +1631,26 @@
       <c r="G22" t="s">
         <v>20</v>
       </c>
-      <c r="O22" t="s">
-        <v>20</v>
-      </c>
-      <c r="P22" t="s">
+      <c r="H22">
+        <v>35</v>
+      </c>
+      <c r="I22" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" t="s">
         <v>27</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="S22" t="s">
         <v>74</v>
       </c>
-      <c r="R22" t="s">
+      <c r="T22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -1536,20 +1672,26 @@
       <c r="G23" t="s">
         <v>20</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23">
+        <v>35</v>
+      </c>
+      <c r="I23" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" t="s">
         <v>31</v>
       </c>
-      <c r="O23" t="s">
+      <c r="Q23" t="s">
         <v>26</v>
       </c>
-      <c r="P23" t="s">
+      <c r="R23" t="s">
         <v>27</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="S23" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -1571,23 +1713,29 @@
       <c r="G24" t="s">
         <v>20</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24">
+        <v>35</v>
+      </c>
+      <c r="I24" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" t="s">
         <v>21</v>
       </c>
-      <c r="O24" t="s">
-        <v>20</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" t="s">
         <v>22</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="S24" t="s">
         <v>74</v>
       </c>
-      <c r="R24" t="s">
+      <c r="T24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -1609,20 +1757,26 @@
       <c r="G25" t="s">
         <v>20</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25">
+        <v>35</v>
+      </c>
+      <c r="I25" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25" t="s">
         <v>31</v>
       </c>
-      <c r="O25" t="s">
+      <c r="Q25" t="s">
         <v>79</v>
       </c>
-      <c r="P25" t="s">
+      <c r="R25" t="s">
         <v>27</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="S25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -1644,19 +1798,25 @@
       <c r="G26" t="s">
         <v>20</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26">
+        <v>35</v>
+      </c>
+      <c r="I26" t="s">
+        <v>95</v>
+      </c>
+      <c r="J26" t="s">
         <v>21</v>
       </c>
-      <c r="O26" t="s">
+      <c r="Q26" t="s">
         <v>26</v>
       </c>
-      <c r="P26" t="s">
+      <c r="R26" t="s">
         <v>27</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="S26" t="s">
         <v>82</v>
       </c>
-      <c r="R26" t="s">
+      <c r="T26" t="s">
         <v>83</v>
       </c>
     </row>

--- a/DEMO_AE.xlsx
+++ b/DEMO_AE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u819970\Downloads\TEST\PracticeWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F04005-46B1-4DBB-8AA6-55D0525263EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288719C2-E175-424F-B621-1C0CB847A890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="98">
   <si>
     <t>STUDYID</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>Years</t>
+  </si>
+  <si>
+    <t>VPP100080009</t>
+  </si>
+  <si>
+    <t>VPP100080109</t>
   </si>
 </sst>
 </file>
@@ -666,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1820,6 +1826,176 @@
         <v>83</v>
       </c>
     </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27">
+        <v>22</v>
+      </c>
+      <c r="I27" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27" t="s">
+        <v>27</v>
+      </c>
+      <c r="S27" t="s">
+        <v>68</v>
+      </c>
+      <c r="T27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28">
+        <v>34</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>26</v>
+      </c>
+      <c r="R28">
+        <v>3</v>
+      </c>
+      <c r="S28" t="s">
+        <v>71</v>
+      </c>
+      <c r="T28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29">
+        <v>34</v>
+      </c>
+      <c r="I29" t="s">
+        <v>95</v>
+      </c>
+      <c r="J29" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>26</v>
+      </c>
+      <c r="R29" t="s">
+        <v>27</v>
+      </c>
+      <c r="S29" t="s">
+        <v>74</v>
+      </c>
+      <c r="T29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30">
+        <v>34</v>
+      </c>
+      <c r="I30" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>26</v>
+      </c>
+      <c r="R30" t="s">
+        <v>27</v>
+      </c>
+      <c r="S30" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DEMO_AE.xlsx
+++ b/DEMO_AE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u819970\Downloads\TEST\PracticeWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288719C2-E175-424F-B621-1C0CB847A890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC1E65A-CCFA-4CFE-8670-A90084E3CCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="89">
   <si>
     <t>STUDYID</t>
   </si>
@@ -105,9 +105,6 @@
     <t>RECOVERED/RESOLVED</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>2024-10-22</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>2024-10-28</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>NOT RECOVERED/NOT RESOLVED</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>2024-11-03</t>
   </si>
   <si>
@@ -153,9 +144,6 @@
     <t>SPECIAL INTEREST ADVERSE EVENTS</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>2024-12-14</t>
   </si>
   <si>
@@ -177,9 +165,6 @@
     <t>FATAL</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>2025-01-09</t>
   </si>
   <si>
@@ -195,24 +180,15 @@
     <t>SUBSEQUENT MALIGNANCY</t>
   </si>
   <si>
-    <t>2025-01</t>
-  </si>
-  <si>
     <t>2024-08-13</t>
   </si>
   <si>
     <t>2024-08-16</t>
   </si>
   <si>
-    <t>2024-11</t>
-  </si>
-  <si>
     <t>COLD</t>
   </si>
   <si>
-    <t>2024-09</t>
-  </si>
-  <si>
     <t>2024-06-26</t>
   </si>
   <si>
@@ -265,9 +241,6 @@
   </si>
   <si>
     <t>HYPOGAMMAGLOBULINEMIA</t>
-  </si>
-  <si>
-    <t>2024-07</t>
   </si>
   <si>
     <t>MUCOSITIS ORAL</t>
@@ -337,6 +310,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -366,8 +343,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -683,6 +663,7 @@
     <col min="3" max="3" width="14.54296875" customWidth="1"/>
     <col min="6" max="6" width="23.26953125" customWidth="1"/>
     <col min="7" max="9" width="14" customWidth="1"/>
+    <col min="19" max="20" width="13.08984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
@@ -708,10 +689,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="I1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -740,24 +721,24 @@
       <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="S1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2">
+        <v>75</v>
+      </c>
+      <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -769,11 +750,11 @@
       <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="H2">
-        <v>32</v>
+      <c r="H2" s="1">
+        <v>92</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s">
         <v>21</v>
@@ -781,31 +762,31 @@
       <c r="Q2" t="s">
         <v>20</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="3">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="T2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3">
+        <v>75</v>
+      </c>
+      <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -813,43 +794,43 @@
       <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="H3">
-        <v>32</v>
+      <c r="H3" s="1">
+        <v>92</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J3" t="s">
         <v>21</v>
       </c>
       <c r="Q3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="3">
+        <v>2</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="S3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4">
+        <v>75</v>
+      </c>
+      <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -857,39 +838,39 @@
       <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="H4">
-        <v>32</v>
+      <c r="H4" s="1">
+        <v>92</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
-      <c r="R4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" t="s">
-        <v>29</v>
+      <c r="R4" s="3">
+        <v>4</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5">
+        <v>76</v>
+      </c>
+      <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" t="s">
@@ -901,43 +882,43 @@
       <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="3">
+        <v>2</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6">
+        <v>76</v>
+      </c>
+      <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -945,11 +926,11 @@
       <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
@@ -957,66 +938,66 @@
       <c r="Q6" t="s">
         <v>20</v>
       </c>
-      <c r="R6" t="s">
-        <v>22</v>
-      </c>
-      <c r="S6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T6" t="s">
-        <v>34</v>
+      <c r="R6" s="3">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7">
+        <v>77</v>
+      </c>
+      <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7">
+        <v>34</v>
+      </c>
+      <c r="H7" s="1">
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="Q7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S7" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="R7" s="3">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8">
+        <v>77</v>
+      </c>
+      <c r="D8" s="1">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -1024,11 +1005,11 @@
       <c r="G8" t="s">
         <v>20</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
         <v>21</v>
@@ -1036,75 +1017,75 @@
       <c r="Q8" t="s">
         <v>20</v>
       </c>
-      <c r="R8" t="s">
-        <v>22</v>
-      </c>
-      <c r="S8" t="s">
-        <v>40</v>
-      </c>
-      <c r="T8" t="s">
-        <v>40</v>
+      <c r="R8" s="3">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9">
+        <v>77</v>
+      </c>
+      <c r="D9" s="1">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9">
+        <v>37</v>
+      </c>
+      <c r="H9" s="1">
         <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
-      </c>
-      <c r="S9" t="s">
-        <v>42</v>
-      </c>
-      <c r="T9" t="s">
-        <v>43</v>
+        <v>86</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10">
+        <v>77</v>
+      </c>
+      <c r="D10" s="1">
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1">
         <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K10" t="s">
         <v>20</v>
@@ -1113,7 +1094,7 @@
         <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N10" t="s">
         <v>20</v>
@@ -1127,31 +1108,31 @@
       <c r="Q10" t="s">
         <v>20</v>
       </c>
-      <c r="R10" t="s">
-        <v>46</v>
-      </c>
-      <c r="S10" t="s">
-        <v>47</v>
-      </c>
-      <c r="T10" t="s">
-        <v>47</v>
+      <c r="R10" s="3">
+        <v>5</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11">
+        <v>78</v>
+      </c>
+      <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
@@ -1159,55 +1140,61 @@
       <c r="G11" t="s">
         <v>20</v>
       </c>
+      <c r="H11" s="1">
+        <v>66</v>
+      </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q11" t="s">
-        <v>26</v>
-      </c>
-      <c r="R11" t="s">
-        <v>22</v>
-      </c>
-      <c r="S11" t="s">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="R11" s="3">
+        <v>1</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12">
+        <v>78</v>
+      </c>
+      <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H12" s="1">
+        <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K12" t="s">
         <v>20</v>
       </c>
       <c r="L12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M12" t="s">
         <v>20</v>
@@ -1222,27 +1209,27 @@
         <v>20</v>
       </c>
       <c r="Q12" t="s">
-        <v>26</v>
-      </c>
-      <c r="S12" t="s">
-        <v>52</v>
+        <v>25</v>
+      </c>
+      <c r="S12" s="2">
+        <v>45684</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13">
+        <v>79</v>
+      </c>
+      <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
@@ -1250,43 +1237,43 @@
       <c r="G13" t="s">
         <v>20</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s">
         <v>21</v>
       </c>
       <c r="Q13" t="s">
-        <v>26</v>
-      </c>
-      <c r="R13" t="s">
-        <v>22</v>
-      </c>
-      <c r="S13" t="s">
-        <v>53</v>
-      </c>
-      <c r="T13" t="s">
-        <v>54</v>
+        <v>25</v>
+      </c>
+      <c r="R13" s="3">
+        <v>1</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14">
+        <v>80</v>
+      </c>
+      <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -1294,43 +1281,43 @@
       <c r="G14" t="s">
         <v>20</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s">
         <v>21</v>
       </c>
       <c r="Q14" t="s">
-        <v>26</v>
-      </c>
-      <c r="R14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S14" t="s">
-        <v>24</v>
-      </c>
-      <c r="T14" t="s">
-        <v>55</v>
+        <v>25</v>
+      </c>
+      <c r="R14" s="3">
+        <v>2</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T14" s="2">
+        <v>45597</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15">
+        <v>81</v>
+      </c>
+      <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
@@ -1338,40 +1325,40 @@
       <c r="G15" t="s">
         <v>20</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>35</v>
       </c>
       <c r="I15" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q15" t="s">
-        <v>26</v>
-      </c>
-      <c r="R15" t="s">
-        <v>27</v>
-      </c>
-      <c r="S15" t="s">
-        <v>57</v>
+        <v>25</v>
+      </c>
+      <c r="R15" s="3">
+        <v>2</v>
+      </c>
+      <c r="S15" s="2">
+        <v>45536</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16">
+        <v>81</v>
+      </c>
+      <c r="D16" s="1">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
@@ -1379,43 +1366,43 @@
       <c r="G16" t="s">
         <v>20</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J16" t="s">
         <v>21</v>
       </c>
       <c r="Q16" t="s">
-        <v>26</v>
-      </c>
-      <c r="R16" t="s">
-        <v>27</v>
-      </c>
-      <c r="S16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T16" t="s">
-        <v>59</v>
+        <v>25</v>
+      </c>
+      <c r="R16" s="3">
+        <v>2</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17">
+        <v>81</v>
+      </c>
+      <c r="D17" s="1">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
@@ -1423,40 +1410,40 @@
       <c r="G17" t="s">
         <v>20</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q17" t="s">
-        <v>26</v>
-      </c>
-      <c r="R17" t="s">
-        <v>27</v>
-      </c>
-      <c r="S17" t="s">
-        <v>61</v>
+        <v>25</v>
+      </c>
+      <c r="R17" s="3">
+        <v>2</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18">
+        <v>81</v>
+      </c>
+      <c r="D18" s="1">
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
@@ -1464,11 +1451,11 @@
       <c r="G18" t="s">
         <v>20</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>35</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J18" t="s">
         <v>21</v>
@@ -1476,31 +1463,31 @@
       <c r="Q18" t="s">
         <v>20</v>
       </c>
-      <c r="R18" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" t="s">
-        <v>63</v>
-      </c>
-      <c r="T18" t="s">
-        <v>64</v>
+      <c r="R18" s="3">
+        <v>1</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19">
+        <v>81</v>
+      </c>
+      <c r="D19" s="1">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -1508,40 +1495,40 @@
       <c r="G19" t="s">
         <v>20</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>35</v>
       </c>
       <c r="I19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q19" t="s">
         <v>20</v>
       </c>
-      <c r="R19" t="s">
-        <v>27</v>
-      </c>
-      <c r="S19" t="s">
-        <v>66</v>
+      <c r="R19" s="3">
+        <v>2</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20">
+        <v>81</v>
+      </c>
+      <c r="D20" s="1">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
@@ -1549,43 +1536,43 @@
       <c r="G20" t="s">
         <v>20</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>35</v>
       </c>
       <c r="I20" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s">
         <v>21</v>
       </c>
       <c r="Q20" t="s">
-        <v>26</v>
-      </c>
-      <c r="R20" t="s">
-        <v>38</v>
-      </c>
-      <c r="S20" t="s">
-        <v>68</v>
-      </c>
-      <c r="T20" t="s">
-        <v>69</v>
+        <v>25</v>
+      </c>
+      <c r="R20" s="3">
+        <v>3</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21">
+        <v>81</v>
+      </c>
+      <c r="D21" s="1">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
@@ -1593,11 +1580,11 @@
       <c r="G21" t="s">
         <v>20</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s">
         <v>21</v>
@@ -1605,31 +1592,31 @@
       <c r="Q21" t="s">
         <v>20</v>
       </c>
-      <c r="R21" t="s">
-        <v>38</v>
-      </c>
-      <c r="S21" t="s">
-        <v>71</v>
-      </c>
-      <c r="T21" t="s">
-        <v>72</v>
+      <c r="R21" s="3">
+        <v>3</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22">
+        <v>81</v>
+      </c>
+      <c r="D22" s="1">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
@@ -1637,40 +1624,40 @@
       <c r="G22" t="s">
         <v>20</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="Q22" t="s">
         <v>20</v>
       </c>
-      <c r="R22" t="s">
-        <v>27</v>
-      </c>
-      <c r="S22" t="s">
-        <v>74</v>
-      </c>
-      <c r="T22" t="s">
-        <v>63</v>
+      <c r="R22" s="3">
+        <v>2</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23">
+        <v>81</v>
+      </c>
+      <c r="D23" s="1">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
@@ -1678,40 +1665,40 @@
       <c r="G23" t="s">
         <v>20</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>35</v>
       </c>
       <c r="I23" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q23" t="s">
-        <v>26</v>
-      </c>
-      <c r="R23" t="s">
-        <v>27</v>
-      </c>
-      <c r="S23" t="s">
-        <v>76</v>
+        <v>25</v>
+      </c>
+      <c r="R23" s="3">
+        <v>2</v>
+      </c>
+      <c r="S23" s="2">
+        <v>45474</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24">
+        <v>81</v>
+      </c>
+      <c r="D24" s="1">
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
@@ -1719,11 +1706,11 @@
       <c r="G24" t="s">
         <v>20</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>35</v>
       </c>
       <c r="I24" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J24" t="s">
         <v>21</v>
@@ -1731,31 +1718,31 @@
       <c r="Q24" t="s">
         <v>20</v>
       </c>
-      <c r="R24" t="s">
-        <v>22</v>
-      </c>
-      <c r="S24" t="s">
-        <v>74</v>
-      </c>
-      <c r="T24" t="s">
-        <v>59</v>
+      <c r="R24" s="3">
+        <v>1</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25">
+        <v>81</v>
+      </c>
+      <c r="D25" s="1">
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
@@ -1763,40 +1750,40 @@
       <c r="G25" t="s">
         <v>20</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>35</v>
       </c>
       <c r="I25" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q25" t="s">
-        <v>79</v>
-      </c>
-      <c r="R25" t="s">
-        <v>27</v>
-      </c>
-      <c r="S25" t="s">
-        <v>80</v>
+        <v>70</v>
+      </c>
+      <c r="R25" s="3">
+        <v>2</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26">
+        <v>81</v>
+      </c>
+      <c r="D26" s="1">
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
@@ -1804,128 +1791,128 @@
       <c r="G26" t="s">
         <v>20</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>35</v>
       </c>
       <c r="I26" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J26" t="s">
         <v>21</v>
       </c>
       <c r="Q26" t="s">
-        <v>26</v>
-      </c>
-      <c r="R26" t="s">
-        <v>27</v>
-      </c>
-      <c r="S26" t="s">
-        <v>82</v>
-      </c>
-      <c r="T26" t="s">
-        <v>83</v>
+        <v>25</v>
+      </c>
+      <c r="R26" s="3">
+        <v>2</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27">
+        <v>87</v>
+      </c>
+      <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="1">
+        <v>22</v>
+      </c>
+      <c r="I27" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>25</v>
+      </c>
+      <c r="R27" s="3">
+        <v>2</v>
+      </c>
+      <c r="S27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27">
-        <v>22</v>
-      </c>
-      <c r="I27" t="s">
-        <v>95</v>
-      </c>
-      <c r="J27" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>26</v>
-      </c>
-      <c r="R27" t="s">
-        <v>27</v>
-      </c>
-      <c r="S27" t="s">
-        <v>68</v>
-      </c>
-      <c r="T27" t="s">
-        <v>69</v>
+      <c r="T27" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28">
+        <v>88</v>
+      </c>
+      <c r="D28" s="1">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28">
+        <v>25</v>
+      </c>
+      <c r="H28" s="1">
         <v>34</v>
       </c>
       <c r="J28" t="s">
         <v>21</v>
       </c>
       <c r="Q28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R28">
         <v>3</v>
       </c>
-      <c r="S28" t="s">
-        <v>71</v>
-      </c>
-      <c r="T28" t="s">
-        <v>72</v>
+      <c r="S28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29">
+        <v>88</v>
+      </c>
+      <c r="D29" s="1">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F29" t="s">
         <v>19</v>
@@ -1933,43 +1920,43 @@
       <c r="G29" t="s">
         <v>20</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <v>34</v>
       </c>
       <c r="I29" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q29" t="s">
-        <v>26</v>
-      </c>
-      <c r="R29" t="s">
-        <v>27</v>
-      </c>
-      <c r="S29" t="s">
-        <v>74</v>
-      </c>
-      <c r="T29" t="s">
-        <v>63</v>
+        <v>25</v>
+      </c>
+      <c r="R29" s="3">
+        <v>2</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
         <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30">
+        <v>88</v>
+      </c>
+      <c r="D30" s="1">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F30" t="s">
         <v>19</v>
@@ -1977,23 +1964,23 @@
       <c r="G30" t="s">
         <v>20</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>34</v>
       </c>
       <c r="I30" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J30" t="s">
         <v>21</v>
       </c>
       <c r="Q30" t="s">
-        <v>26</v>
-      </c>
-      <c r="R30" t="s">
-        <v>27</v>
-      </c>
-      <c r="S30" t="s">
-        <v>76</v>
+        <v>25</v>
+      </c>
+      <c r="R30" s="3">
+        <v>2</v>
+      </c>
+      <c r="S30" s="2">
+        <v>45475</v>
       </c>
     </row>
   </sheetData>
